--- a/media/PHYSICS_I_2015_1.xlsx
+++ b/media/PHYSICS_I_2015_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="5">
   <si>
     <t>RegNo</t>
   </si>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>9151125</v>
+        <v>9151101</v>
       </c>
       <c r="B2">
         <v>2015</v>
@@ -422,15 +422,2647 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
+        <v>9151102</v>
+      </c>
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>9151103</v>
+      </c>
+      <c r="B4">
+        <v>2015</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>9151104</v>
+      </c>
+      <c r="B5">
+        <v>2015</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>9151105</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>9151106</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>9151107</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9151108</v>
+      </c>
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9151109</v>
+      </c>
+      <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9151110</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9151111</v>
+      </c>
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>9151112</v>
+      </c>
+      <c r="B13">
+        <v>2015</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>9151113</v>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>9151114</v>
+      </c>
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>9151115</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9151116</v>
+      </c>
+      <c r="B17">
+        <v>2015</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9151117</v>
+      </c>
+      <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>9151118</v>
+      </c>
+      <c r="B19">
+        <v>2015</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>9151119</v>
+      </c>
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>9151120</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>9151121</v>
+      </c>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>9151122</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>9151123</v>
+      </c>
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>9151124</v>
+      </c>
+      <c r="B25">
+        <v>2015</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>9151125</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>9151126</v>
+      </c>
+      <c r="B27">
+        <v>2015</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>9151127</v>
+      </c>
+      <c r="B28">
+        <v>2015</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>9151128</v>
+      </c>
+      <c r="B29">
+        <v>2015</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>9151129</v>
+      </c>
+      <c r="B30">
+        <v>2015</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>9151130</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>9151131</v>
+      </c>
+      <c r="B32">
+        <v>2015</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>9151132</v>
+      </c>
+      <c r="B33">
+        <v>2015</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>9151133</v>
+      </c>
+      <c r="B34">
+        <v>2015</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>9151134</v>
+      </c>
+      <c r="B35">
+        <v>2015</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>9151135</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>9151136</v>
+      </c>
+      <c r="B37">
+        <v>2015</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>9151137</v>
+      </c>
+      <c r="B38">
+        <v>2015</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>9151138</v>
+      </c>
+      <c r="B39">
+        <v>2015</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>9151139</v>
+      </c>
+      <c r="B40">
+        <v>2015</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>9151140</v>
+      </c>
+      <c r="B41">
+        <v>2015</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>9151141</v>
+      </c>
+      <c r="B42">
+        <v>2015</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>9151142</v>
+      </c>
+      <c r="B43">
+        <v>2015</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>9151143</v>
+      </c>
+      <c r="B44">
+        <v>2015</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>9151144</v>
+      </c>
+      <c r="B45">
+        <v>2015</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>9151145</v>
+      </c>
+      <c r="B46">
+        <v>2015</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>9151146</v>
+      </c>
+      <c r="B47">
+        <v>2015</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>9151147</v>
+      </c>
+      <c r="B48">
+        <v>2015</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>9151148</v>
+      </c>
+      <c r="B49">
+        <v>2015</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>9151149</v>
+      </c>
+      <c r="B50">
+        <v>2015</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>9151150</v>
+      </c>
+      <c r="B51">
+        <v>2015</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>9151151</v>
+      </c>
+      <c r="B52">
+        <v>2015</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>9151152</v>
+      </c>
+      <c r="B53">
+        <v>2015</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>9151153</v>
+      </c>
+      <c r="B54">
+        <v>2015</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>9151154</v>
+      </c>
+      <c r="B55">
+        <v>2015</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>9151155</v>
+      </c>
+      <c r="B56">
+        <v>2015</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>9151156</v>
+      </c>
+      <c r="B57">
+        <v>2015</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>9151157</v>
+      </c>
+      <c r="B58">
+        <v>2015</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>9151158</v>
+      </c>
+      <c r="B59">
+        <v>2015</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>9151159</v>
+      </c>
+      <c r="B60">
+        <v>2015</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>9151160</v>
+      </c>
+      <c r="B61">
+        <v>2015</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>9151201</v>
+      </c>
+      <c r="B62">
+        <v>2015</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>9151202</v>
+      </c>
+      <c r="B63">
+        <v>2015</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>9151203</v>
+      </c>
+      <c r="B64">
+        <v>2015</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>9151204</v>
+      </c>
+      <c r="B65">
+        <v>2015</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>9151205</v>
+      </c>
+      <c r="B66">
+        <v>2015</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>9151206</v>
+      </c>
+      <c r="B67">
+        <v>2015</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>9151207</v>
+      </c>
+      <c r="B68">
+        <v>2015</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>9151208</v>
+      </c>
+      <c r="B69">
+        <v>2015</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>9151209</v>
+      </c>
+      <c r="B70">
+        <v>2015</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>9151210</v>
+      </c>
+      <c r="B71">
+        <v>2015</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>9151211</v>
+      </c>
+      <c r="B72">
+        <v>2015</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>9151212</v>
+      </c>
+      <c r="B73">
+        <v>2015</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>9151213</v>
+      </c>
+      <c r="B74">
+        <v>2015</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>9151214</v>
+      </c>
+      <c r="B75">
+        <v>2015</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>9151215</v>
+      </c>
+      <c r="B76">
+        <v>2015</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>9151216</v>
+      </c>
+      <c r="B77">
+        <v>2015</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>9151217</v>
+      </c>
+      <c r="B78">
+        <v>2015</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>9151218</v>
+      </c>
+      <c r="B79">
+        <v>2015</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>9151219</v>
+      </c>
+      <c r="B80">
+        <v>2015</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>9151220</v>
+      </c>
+      <c r="B81">
+        <v>2015</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>9151221</v>
+      </c>
+      <c r="B82">
+        <v>2015</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>9151222</v>
+      </c>
+      <c r="B83">
+        <v>2015</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>9151223</v>
+      </c>
+      <c r="B84">
+        <v>2015</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>9151224</v>
+      </c>
+      <c r="B85">
+        <v>2015</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>9151225</v>
+      </c>
+      <c r="B86">
+        <v>2015</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>9151226</v>
+      </c>
+      <c r="B87">
+        <v>2015</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>9151227</v>
+      </c>
+      <c r="B88">
+        <v>2015</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>9151228</v>
+      </c>
+      <c r="B89">
+        <v>2015</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>9151229</v>
+      </c>
+      <c r="B90">
+        <v>2015</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>9151230</v>
+      </c>
+      <c r="B91">
+        <v>2015</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>9151231</v>
+      </c>
+      <c r="B92">
+        <v>2015</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>9151232</v>
+      </c>
+      <c r="B93">
+        <v>2015</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>9151233</v>
+      </c>
+      <c r="B94">
+        <v>2015</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>9151234</v>
+      </c>
+      <c r="B95">
+        <v>2015</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>9151235</v>
+      </c>
+      <c r="B96">
+        <v>2015</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>9151236</v>
+      </c>
+      <c r="B97">
+        <v>2015</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>9151237</v>
+      </c>
+      <c r="B98">
+        <v>2015</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>9151238</v>
+      </c>
+      <c r="B99">
+        <v>2015</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>9151239</v>
+      </c>
+      <c r="B100">
+        <v>2015</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>9151240</v>
+      </c>
+      <c r="B101">
+        <v>2015</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>9151241</v>
+      </c>
+      <c r="B102">
+        <v>2015</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>9151242</v>
+      </c>
+      <c r="B103">
+        <v>2015</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>9151243</v>
+      </c>
+      <c r="B104">
+        <v>2015</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>9151244</v>
+      </c>
+      <c r="B105">
+        <v>2015</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>9151245</v>
+      </c>
+      <c r="B106">
+        <v>2015</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>9151246</v>
+      </c>
+      <c r="B107">
+        <v>2015</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>9151247</v>
+      </c>
+      <c r="B108">
+        <v>2015</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>9151248</v>
+      </c>
+      <c r="B109">
+        <v>2015</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>9151249</v>
+      </c>
+      <c r="B110">
+        <v>2015</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>9151250</v>
+      </c>
+      <c r="B111">
+        <v>2015</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>9151251</v>
+      </c>
+      <c r="B112">
+        <v>2015</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>9151252</v>
+      </c>
+      <c r="B113">
+        <v>2015</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>9151253</v>
+      </c>
+      <c r="B114">
+        <v>2015</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>9151254</v>
+      </c>
+      <c r="B115">
+        <v>2015</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>9151255</v>
+      </c>
+      <c r="B116">
+        <v>2015</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>9151256</v>
+      </c>
+      <c r="B117">
+        <v>2015</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>9151257</v>
+      </c>
+      <c r="B118">
+        <v>2015</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>9151258</v>
+      </c>
+      <c r="B119">
+        <v>2015</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>9151259</v>
+      </c>
+      <c r="B120">
+        <v>2015</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>9151260</v>
+      </c>
+      <c r="B121">
+        <v>2015</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>9151301</v>
+      </c>
+      <c r="B122">
+        <v>2015</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>9151302</v>
+      </c>
+      <c r="B123">
+        <v>2015</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>9151303</v>
+      </c>
+      <c r="B124">
+        <v>2015</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>9151304</v>
+      </c>
+      <c r="B125">
+        <v>2015</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>9151305</v>
+      </c>
+      <c r="B126">
+        <v>2015</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>9151306</v>
+      </c>
+      <c r="B127">
+        <v>2015</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>9151307</v>
+      </c>
+      <c r="B128">
+        <v>2015</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>9151308</v>
+      </c>
+      <c r="B129">
+        <v>2015</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>9151309</v>
+      </c>
+      <c r="B130">
+        <v>2015</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>9151310</v>
+      </c>
+      <c r="B131">
+        <v>2015</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>9151311</v>
+      </c>
+      <c r="B132">
+        <v>2015</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>9151312</v>
+      </c>
+      <c r="B133">
+        <v>2015</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>9151313</v>
+      </c>
+      <c r="B134">
+        <v>2015</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>9151314</v>
+      </c>
+      <c r="B135">
+        <v>2015</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>9151315</v>
+      </c>
+      <c r="B136">
+        <v>2015</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>9151316</v>
+      </c>
+      <c r="B137">
+        <v>2015</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>9151317</v>
+      </c>
+      <c r="B138">
+        <v>2015</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>9151318</v>
+      </c>
+      <c r="B139">
+        <v>2015</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>9151319</v>
+      </c>
+      <c r="B140">
+        <v>2015</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>9151320</v>
+      </c>
+      <c r="B141">
+        <v>2015</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>9151321</v>
+      </c>
+      <c r="B142">
+        <v>2015</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>9151322</v>
+      </c>
+      <c r="B143">
+        <v>2015</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>9151323</v>
+      </c>
+      <c r="B144">
+        <v>2015</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>9151324</v>
+      </c>
+      <c r="B145">
+        <v>2015</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>9151325</v>
+      </c>
+      <c r="B146">
+        <v>2015</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>9151326</v>
+      </c>
+      <c r="B147">
+        <v>2015</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>9151327</v>
+      </c>
+      <c r="B148">
+        <v>2015</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>9151328</v>
+      </c>
+      <c r="B149">
+        <v>2015</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>9151329</v>
+      </c>
+      <c r="B150">
+        <v>2015</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>9151330</v>
+      </c>
+      <c r="B151">
+        <v>2015</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>9151331</v>
+      </c>
+      <c r="B152">
+        <v>2015</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>9151332</v>
+      </c>
+      <c r="B153">
+        <v>2015</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>9151333</v>
+      </c>
+      <c r="B154">
+        <v>2015</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>9151334</v>
+      </c>
+      <c r="B155">
+        <v>2015</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>9151335</v>
+      </c>
+      <c r="B156">
+        <v>2015</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>9151336</v>
+      </c>
+      <c r="B157">
+        <v>2015</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>9151337</v>
+      </c>
+      <c r="B158">
+        <v>2015</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>9151338</v>
+      </c>
+      <c r="B159">
+        <v>2015</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>9151339</v>
+      </c>
+      <c r="B160">
+        <v>2015</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>9151340</v>
+      </c>
+      <c r="B161">
+        <v>2015</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>9151341</v>
+      </c>
+      <c r="B162">
+        <v>2015</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>9151342</v>
+      </c>
+      <c r="B163">
+        <v>2015</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>9151343</v>
+      </c>
+      <c r="B164">
+        <v>2015</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>9151344</v>
+      </c>
+      <c r="B165">
+        <v>2015</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>9151345</v>
+      </c>
+      <c r="B166">
+        <v>2015</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>9151346</v>
+      </c>
+      <c r="B167">
+        <v>2015</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>9151347</v>
+      </c>
+      <c r="B168">
+        <v>2015</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>9151348</v>
+      </c>
+      <c r="B169">
+        <v>2015</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>9151349</v>
+      </c>
+      <c r="B170">
+        <v>2015</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>9151350</v>
+      </c>
+      <c r="B171">
+        <v>2015</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>9151351</v>
+      </c>
+      <c r="B172">
+        <v>2015</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>9151352</v>
+      </c>
+      <c r="B173">
+        <v>2015</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>9151353</v>
+      </c>
+      <c r="B174">
+        <v>2015</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>9151354</v>
+      </c>
+      <c r="B175">
+        <v>2015</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>9151355</v>
+      </c>
+      <c r="B176">
+        <v>2015</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>9151356</v>
+      </c>
+      <c r="B177">
+        <v>2015</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>9151357</v>
+      </c>
+      <c r="B178">
+        <v>2015</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>9151358</v>
+      </c>
+      <c r="B179">
+        <v>2015</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>9151359</v>
+      </c>
+      <c r="B180">
+        <v>2015</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>9151360</v>
+      </c>
+      <c r="B181">
+        <v>2015</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>9151361</v>
+      </c>
+      <c r="B182">
+        <v>2015</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>9151362</v>
+      </c>
+      <c r="B183">
+        <v>2015</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>9151363</v>
+      </c>
+      <c r="B184">
+        <v>2015</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>9151364</v>
+      </c>
+      <c r="B185">
+        <v>2015</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>9151365</v>
+      </c>
+      <c r="B186">
+        <v>2015</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>9151366</v>
+      </c>
+      <c r="B187">
+        <v>2015</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>9151367</v>
+      </c>
+      <c r="B188">
+        <v>2015</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>9151368</v>
+      </c>
+      <c r="B189">
+        <v>2015</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>9151369</v>
+      </c>
+      <c r="B190">
+        <v>2015</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
         <v>9151370</v>
       </c>
-      <c r="B3">
-        <v>2015</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B191">
+        <v>2015</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
         <v>4</v>
       </c>
     </row>
